--- a/DB tables.xlsx
+++ b/DB tables.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjm23\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\human\팀 프로젝트\meeting-log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C71986A-DF19-496D-AF84-33B109E8EBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{37878C03-7DA3-4CED-BEFE-662C2421FA39}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="킹정명" sheetId="2" r:id="rId1"/>
+    <sheet name="신치수" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="149">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,14 +269,366 @@
   </si>
   <si>
     <t>kli3512@nate.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갱신일자(종합)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세페이지 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 성공 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 키값, 쿠키로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹수치(종합)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 시도에 입력한 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동로그인 일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹수치(주간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 성공/실패 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갱신일자(주간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 페이지 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랭킹수치(일간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태(회원,탈퇴,휴먼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갱신일자(일간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고누적횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 페이지(정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 게시글(1:1, 정보건의)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계층, 트리구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 아이콘 경로(기본)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 이미지 경로(설정값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(댓글-답변)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급(관리자인가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자용 메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 아이콘 경로(기본)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 이미지 경로(설정 시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고당한 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 수정 일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차단된 회원인지 여부(제재여부)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 관련 내용 경로(댓글ID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세페이지 정보ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세페이지 정보ID의 랭킹카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보아이디:이동수단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증을 받았는지 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입메일 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입시 기본정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 인증키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,8 +669,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,46 +804,52 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,11 +859,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -798,340 +1188,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5230A0-2272-4122-9A39-F5FD1C592624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="14.19921875" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" customWidth="1"/>
-    <col min="13" max="13" width="19.796875" customWidth="1"/>
-    <col min="14" max="14" width="12.796875" customWidth="1"/>
-    <col min="15" max="16" width="15.3984375" customWidth="1"/>
-    <col min="17" max="17" width="12.19921875" customWidth="1"/>
-    <col min="20" max="20" width="11.09765625" customWidth="1"/>
-    <col min="23" max="23" width="13.19921875" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="19.75" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="16" width="15.375" customWidth="1"/>
+    <col min="17" max="17" width="12.25" customWidth="1"/>
+    <col min="20" max="20" width="11.125" customWidth="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="O4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="T4" s="13" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="T4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="15"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="C5" s="11" t="s">
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="17"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="7">
         <v>123</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="7">
         <v>123</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="10">
         <v>44349</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="3">
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="7">
         <v>42</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="7">
         <v>123</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="10">
         <v>44350</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="C10" s="8" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="F11" s="8" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="F12" s="8" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="F13" s="8" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="F14" s="8" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1145,9 +1535,426 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M6" r:id="rId1" xr:uid="{ABE2EEF1-5342-4681-8CCA-65885227A637}"/>
-    <hyperlink ref="M7" r:id="rId2" xr:uid="{86A7B180-DF56-4FC8-8384-7A3AFA2FDAA8}"/>
+    <hyperlink ref="M6" r:id="rId1"/>
+    <hyperlink ref="M7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>